--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,10 +1317,10 @@
         <v>61</v>
       </c>
       <c r="AA6" s="3">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="AB6" s="3">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>54</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
@@ -313,7 +313,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,11 +345,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -629,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,119 +783,119 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>2018</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>53080</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>8</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="5">
         <v>214</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="5">
         <v>2</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="5">
         <v>2</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="5">
         <v>42</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="5">
         <v>42</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AC2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AG2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="5">
         <v>20010101</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AL2" s="5" t="s">
         <v>49</v>
       </c>
     </row>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
   <si>
     <t>VIN</t>
   </si>
@@ -237,12 +237,6 @@
     <t>VOLKSWAGEN</t>
   </si>
   <si>
-    <t>GOLF</t>
-  </si>
-  <si>
-    <t>HATCHBACK 4 DOOR</t>
-  </si>
-  <si>
     <t>RT</t>
   </si>
   <si>
@@ -271,6 +265,15 @@
   </si>
   <si>
     <t>HHHKN3DD&amp;E</t>
+  </si>
+  <si>
+    <t>PASSAT</t>
+  </si>
+  <si>
+    <t>PASSAT S</t>
+  </si>
+  <si>
+    <t>SEDAN</t>
   </si>
 </sst>
 </file>
@@ -639,35 +642,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,21 +786,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="5">
         <v>2018</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>51</v>
@@ -899,12 +902,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -916,7 +919,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1015,12 +1018,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
@@ -1032,7 +1035,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1131,12 +1134,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1148,7 +1151,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1208,7 +1211,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA5" s="3">
         <v>42</v>
@@ -1247,12 +1250,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
@@ -1264,10 +1267,10 @@
         <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
@@ -1276,13 +1279,13 @@
         <v>29</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>29</v>
@@ -1324,7 +1327,7 @@
         <v>37</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA6" s="3">
         <v>66</v>
@@ -1339,16 +1342,16 @@
         <v>39</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI6" s="3">
         <v>20000101</v>

--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
@@ -23,42 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Petrenko, Viktor (C)</author>
-  </authors>
-  <commentList>
-    <comment ref="AA6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Petrenko, Viktor (C):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-User for MSRP PAS-730</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="63">
   <si>
     <t>VIN</t>
   </si>
@@ -228,24 +194,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>8L V12</t>
-  </si>
-  <si>
-    <t>4WD</t>
-  </si>
-  <si>
-    <t>VOLKSWAGEN</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>7MSRP15H&amp;V</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -265,22 +213,13 @@
   </si>
   <si>
     <t>HHHKN3DD&amp;E</t>
-  </si>
-  <si>
-    <t>PASSAT</t>
-  </si>
-  <si>
-    <t>PASSAT S</t>
-  </si>
-  <si>
-    <t>SEDAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,19 +240,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -639,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,19 +714,19 @@
     </row>
     <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5">
         <v>2018</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>51</v>
@@ -904,10 +830,10 @@
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
@@ -919,7 +845,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>28</v>
@@ -1020,10 +946,10 @@
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
@@ -1035,7 +961,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>28</v>
@@ -1136,10 +1062,10 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
@@ -1151,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>28</v>
@@ -1211,7 +1137,7 @@
         <v>37</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="3">
         <v>42</v>
@@ -1247,128 +1173,11 @@
         <v>39</v>
       </c>
       <c r="AL5" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="3">
-        <v>88888</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="3">
-        <v>12</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>214</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="3">
-        <v>4</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>66</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New8VIN_UT_SS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT-repo\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSAA\CODE\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <author>Petrenko, Viktor (C)</author>
   </authors>
   <commentList>
-    <comment ref="AA6" authorId="0" shapeId="0">
+    <comment ref="Y6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="66">
   <si>
     <t>VIN</t>
   </si>
@@ -93,9 +93,6 @@
     <t>SEGMENTATION_CD</t>
   </si>
   <si>
-    <t>BODY_STYLE_CD</t>
-  </si>
-  <si>
     <t>BODYSHELL</t>
   </si>
   <si>
@@ -216,15 +213,6 @@
     <t>Gt</t>
   </si>
   <si>
-    <t>STAT</t>
-  </si>
-  <si>
-    <t>CHOICE_TIER</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -237,16 +225,10 @@
     <t>VOLKSWAGEN</t>
   </si>
   <si>
-    <t>RT</t>
-  </si>
-  <si>
     <t>7MSRP15H&amp;V</t>
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t>invalidVIN</t>
@@ -640,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC1" activeCellId="2" sqref="L6 Z1:Z6 AC1:AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,21 +638,19 @@
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5546875" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" customWidth="1"/>
-    <col min="24" max="24" width="20.88671875" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="26" width="5.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.33203125" customWidth="1"/>
-    <col min="28" max="29" width="13.6640625" customWidth="1"/>
-    <col min="35" max="35" width="19.88671875" customWidth="1"/>
-    <col min="36" max="36" width="21.88671875" customWidth="1"/>
-    <col min="38" max="38" width="20.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="20" max="20" width="22.88671875" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" customWidth="1"/>
+    <col min="23" max="23" width="20.88671875" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="32" max="32" width="19.88671875" customWidth="1"/>
+    <col min="33" max="33" width="21.88671875" customWidth="1"/>
+    <col min="35" max="35" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,111 +727,102 @@
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="5">
         <v>2018</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="5">
         <v>53080</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="5">
+        <v>8</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="5">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="5">
-        <v>214</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="5">
+        <v>2</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="5">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="V2" s="5">
-        <v>2</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>35</v>
@@ -859,115 +830,106 @@
       <c r="X2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Y2" s="5">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="5">
-        <v>42</v>
+      <c r="AB2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>20010101</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="5">
-        <v>20010101</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3">
         <v>53080</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="3">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="3">
-        <v>8</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="3">
+        <v>214</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="3">
-        <v>214</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="S3" s="3">
-        <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="3">
+        <v>2</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="V3" s="3">
-        <v>2</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>35</v>
@@ -975,115 +937,106 @@
       <c r="X3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="3" t="s">
+      <c r="Y3" s="3">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="3">
-        <v>42</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>42</v>
+      <c r="AB3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>20000101</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3">
         <v>53080</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="3">
+        <v>8</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3">
-        <v>8</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="3">
+        <v>214</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="3">
-        <v>214</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="3">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="S4" s="3">
-        <v>2</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="3">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="V4" s="3">
-        <v>2</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>35</v>
@@ -1091,29 +1044,29 @@
       <c r="X4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="3">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>42</v>
-      </c>
       <c r="AC4" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>20150101</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>38</v>
@@ -1121,85 +1074,76 @@
       <c r="AH4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AI4" s="3">
-        <v>20150101</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>49</v>
+      <c r="AI4" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="3">
         <v>53080</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="3">
+        <v>8</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="3">
-        <v>8</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="3">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="3">
-        <v>214</v>
-      </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="3">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="S5" s="3">
-        <v>2</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="V5" s="3">
-        <v>2</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>35</v>
@@ -1207,115 +1151,106 @@
       <c r="X5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="3">
+      <c r="Y5" s="3">
         <v>42</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="Z5" s="3">
         <v>42</v>
       </c>
+      <c r="AA5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="AC5" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>20190101</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>20190101</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3">
         <v>2018</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3">
         <v>88888</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="3">
+        <v>52</v>
+      </c>
+      <c r="N6" s="3">
         <v>12</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="O6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="3">
         <v>214</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="3">
+      <c r="Q6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="3">
         <v>4</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="3">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="V6" s="3">
-        <v>2</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>35</v>
@@ -1323,47 +1258,38 @@
       <c r="X6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA6" s="3">
+      <c r="Y6" s="3">
         <v>66</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="Z6" s="3">
         <v>55</v>
       </c>
+      <c r="AA6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="AC6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>20000101</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>20000101</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
